--- a/server/src/main/resources/templates/template-user.xlsx
+++ b/server/src/main/resources/templates/template-user.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\goudong-java\authentication\server\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE0165-1350-4380-9A98-6F330F1C3FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B284D5D-1795-415A-BD59-D1243E295B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,35 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>注意：表头携带“</t>
     </r>
     <r>
@@ -168,9 +197,139 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">”表示该列必传。
-1、用户名：同一应用下用户名唯一；
-2、有效期，用户有效截止时间，超过有效期的用户不能登录。
-    2.1、填写具体的日期时间，格式 </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">同一应用下，用户名唯一。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果填写了密码（至少填写6位），那用户需要使用指定密码进行登录；如果未填写密码，系统会给用户初始一个默认密码。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角色：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">应该填写本应用下已存在的角色（可以使用英文逗号分割多个角色名）。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有效期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：用户有效截止时间，超过有效期的用户不能登录。
+    填写具体的日期时间，格式 </t>
     </r>
     <r>
       <rPr>
@@ -193,20 +352,43 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>。
+    填写具体的日期，格式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yyyy-MM-dd（时间是23:59:59）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-    2.2、填写具体的日期，格式</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">yyyy-MM-dd（时间是当天零点）
 </t>
     </r>
     <r>
@@ -218,7 +400,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">    2.3、填写具体的时间，格式</t>
+      <t xml:space="preserve">    填写具体的时间，格式</t>
     </r>
     <r>
       <rPr>
@@ -241,10 +423,79 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-填写格式： 此种格式会在日期当天零点生效，或者  。
-3、激活状态：分为已激活和未激活，未激活的用户不能登录；
-4、锁定状态：分为已锁定和未锁定，当用户在某些情况下被认为是不安全的（例如，多次输入错误密码或账户被其他用户报告为恶意），他们的账户将被锁定。锁定账户的目的是防止用户在不安全的情况下使用其账户。在账户被锁定期间，用户无法登录，并且必须在特定的时间段内重置密码或联系管理员以解锁账户。</t>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>激活状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：分为“已激活”和“未激活”，未激活的用户不能登录。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锁定状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：分为“已锁定”和“未锁定”，当用户在某些情况下被认为是不安全的（例如，多次输入错误密码或账户被其他用户报告为恶意），他们的账户将被锁定。锁定账户的目的是防止用户在不安全的情况下使用其账户。在账户被锁定期间，用户无法登录，并且必须在特定的时间段内重置密码或联系管理员以解锁账户。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,7 +504,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +569,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -339,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -362,13 +622,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,11 +678,14 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,57 +1001,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5CEC48-5F9C-4F04-A393-FBBF3E21069C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{84F245E5-A0CB-428B-8100-B11125705252}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{84F245E5-A0CB-428B-8100-B11125705252}">
       <formula1>"已激活,未激活"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{F80F4AC9-14B4-461B-80C3-3D327C4F296E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{F80F4AC9-14B4-461B-80C3-3D327C4F296E}">
       <formula1>"未锁定,已锁定"</formula1>
     </dataValidation>
   </dataValidations>

--- a/server/src/main/resources/templates/template-user.xlsx
+++ b/server/src/main/resources/templates/template-user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B284D5D-1795-415A-BD59-D1243E295B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EBCA20-09CE-4AB3-B7B6-25D103AE664F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="3270" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1004,7 +1004,8 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1057,12 +1058,21 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{84F245E5-A0CB-428B-8100-B11125705252}">
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="密码" prompt="非必填，如果填写时，至少保证6位长度的文本；如果未填写，使用系统默认初始密码。" sqref="B2:B1048576" xr:uid="{F22EF0BD-5297-4C3F-9CAD-86F15DA33BEC}"/>
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="角色填写错误" error="角色必填，且填写的是应用下存在的角色" promptTitle="角色" prompt="必填，且必须是应用下存在的角色名，多个角色使用英文逗号分割" sqref="C2:C1048576" xr:uid="{DE9A8718-4657-4DC6-800E-12DA01831975}">
+      <formula1>2</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="有效期" prompt="必填，账户的有效截止时间" sqref="D2:D1048576" xr:uid="{4EFF5CA9-DE2D-4ED7-9BDC-FC07715E543D}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="激活状态" prompt="必填，已激活的用户才能进行登录" sqref="E2:E1048576" xr:uid="{1B42677E-1806-4CFF-BDEE-A73773B243B9}">
       <formula1>"已激活,未激活"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{F80F4AC9-14B4-461B-80C3-3D327C4F296E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="锁定状态" prompt="必填，未锁定的账户才能登录" sqref="F2:F1048576" xr:uid="{D677FBE1-CD1A-4DE3-9110-D03FE33BC5BA}">
       <formula1>"未锁定,已锁定"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="用户名填写错误" error="用户名必填，且长度范围是1~16位" promptTitle="用户名" prompt="必填，应用下唯一，且长度范围1~16位" sqref="A2:A1048576" xr:uid="{C01A4647-97A0-4674-A273-699F3C4B6A7B}">
+      <formula1>1</formula1>
+      <formula2>16</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/src/main/resources/templates/template-user.xlsx
+++ b/server/src/main/resources/templates/template-user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EBCA20-09CE-4AB3-B7B6-25D103AE664F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE76ED44-48F2-45B1-B560-270315049375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="5145" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1005,7 +1005,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1059,18 +1059,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="密码" prompt="非必填，如果填写时，至少保证6位长度的文本；如果未填写，使用系统默认初始密码。" sqref="B2:B1048576" xr:uid="{F22EF0BD-5297-4C3F-9CAD-86F15DA33BEC}"/>
-    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="角色填写错误" error="角色必填，且填写的是应用下存在的角色" promptTitle="角色" prompt="必填，且必须是应用下存在的角色名，多个角色使用英文逗号分割" sqref="C2:C1048576" xr:uid="{DE9A8718-4657-4DC6-800E-12DA01831975}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="密码" prompt="非必填，如果填写时，至少保证6位长度的文本；如果未填写，使用系统默认初始密码。" sqref="B3:B1048576" xr:uid="{F22EF0BD-5297-4C3F-9CAD-86F15DA33BEC}"/>
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="角色填写错误" error="角色必填，且填写的是应用下存在的角色" promptTitle="角色" prompt="必填，且必须是应用下存在的角色名，多个角色使用英文逗号分割" sqref="C3:C1048576" xr:uid="{DE9A8718-4657-4DC6-800E-12DA01831975}">
       <formula1>2</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="有效期" prompt="必填，账户的有效截止时间" sqref="D2:D1048576" xr:uid="{4EFF5CA9-DE2D-4ED7-9BDC-FC07715E543D}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="激活状态" prompt="必填，已激活的用户才能进行登录" sqref="E2:E1048576" xr:uid="{1B42677E-1806-4CFF-BDEE-A73773B243B9}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="有效期" prompt="必填，账户的有效截止时间" sqref="D3:D1048576" xr:uid="{4EFF5CA9-DE2D-4ED7-9BDC-FC07715E543D}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="激活状态" prompt="必填，已激活的用户才能进行登录" sqref="E3:E1048576" xr:uid="{1B42677E-1806-4CFF-BDEE-A73773B243B9}">
       <formula1>"已激活,未激活"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="锁定状态" prompt="必填，未锁定的账户才能登录" sqref="F2:F1048576" xr:uid="{D677FBE1-CD1A-4DE3-9110-D03FE33BC5BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="锁定状态" prompt="必填，未锁定的账户才能登录" sqref="F3:F1048576" xr:uid="{D677FBE1-CD1A-4DE3-9110-D03FE33BC5BA}">
       <formula1>"未锁定,已锁定"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="用户名填写错误" error="用户名必填，且长度范围是1~16位" promptTitle="用户名" prompt="必填，应用下唯一，且长度范围1~16位" sqref="A2:A1048576" xr:uid="{C01A4647-97A0-4674-A273-699F3C4B6A7B}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="用户名填写错误" error="用户名必填，且长度范围是1~16位" promptTitle="用户名" prompt="必填，应用下唯一，且长度范围1~16位" sqref="A3:A1048576" xr:uid="{C01A4647-97A0-4674-A273-699F3C4B6A7B}">
       <formula1>1</formula1>
       <formula2>16</formula2>
     </dataValidation>
